--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohannad.mohammad\Desktop\DemoAa\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Desktop\Cucumber_practicetestautomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81265877-9182-47D3-A59C-DAFFEE0A8DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3132B1B-73C3-4337-889E-84E3DB192B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{7905927F-737B-4988-ACC2-FC3A78C7F018}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7905927F-737B-4988-ACC2-FC3A78C7F018}"/>
   </bookViews>
   <sheets>
     <sheet name="configration" sheetId="2" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usernameInvalid</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>emptyUserName</t>
+  </si>
+  <si>
+    <t>emptyPassword</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,12 +448,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -458,21 +471,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB7B3B-B553-424D-B4DF-EC8066DC8E0D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -482,40 +495,47 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
